--- a/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 25,24</t>
+          <t>15,15; 25,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,66; 33,17</t>
+          <t>21,94; 32,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 29,64</t>
+          <t>20,15; 29,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 26,78</t>
+          <t>16,03; 25,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,67; 43,64</t>
+          <t>32,51; 44,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,75; 39,68</t>
+          <t>30,65; 39,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 24,13</t>
+          <t>17,11; 24,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,35; 37,01</t>
+          <t>29,06; 36,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,63; 33,46</t>
+          <t>26,65; 33,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,54</t>
+          <t>20,12; 27,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 12,86</t>
+          <t>7,09; 12,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,04</t>
+          <t>9,97; 15,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 14,36</t>
+          <t>8,22; 14,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,64; 37,67</t>
+          <t>29,58; 37,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 21,71</t>
+          <t>14,86; 21,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,65</t>
+          <t>15,84; 22,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 21,76</t>
+          <t>15,93; 21,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 31,45</t>
+          <t>25,4; 31,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 16,49</t>
+          <t>11,84; 16,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,37</t>
+          <t>13,68; 18,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 17,27</t>
+          <t>12,97; 17,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 15,29</t>
+          <t>8,2; 15,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 19,7</t>
+          <t>11,45; 19,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 25,62</t>
+          <t>17,05; 25,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 20,93</t>
+          <t>12,97; 20,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 25,22</t>
+          <t>16,64; 25,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,93; 24,51</t>
+          <t>16,25; 25,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,89; 29,46</t>
+          <t>19,72; 29,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,79</t>
+          <t>14,18; 20,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,39</t>
+          <t>13,58; 19,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 21,11</t>
+          <t>14,81; 20,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,3; 26,0</t>
+          <t>19,17; 25,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 19,26</t>
+          <t>14,56; 19,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 17,34</t>
+          <t>10,49; 17,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 25,56</t>
+          <t>19,42; 25,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 25,11</t>
+          <t>16,21; 24,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 24,31</t>
+          <t>14,46; 24,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,55; 31,97</t>
+          <t>22,69; 32,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,22; 39,77</t>
+          <t>32,3; 40,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,67; 32,24</t>
+          <t>23,12; 32,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 25,02</t>
+          <t>16,96; 24,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,71; 23,28</t>
+          <t>17,47; 23,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,79; 31,7</t>
+          <t>26,94; 31,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,35</t>
+          <t>20,94; 27,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 23,3</t>
+          <t>16,96; 23,45</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,49; 41,31</t>
+          <t>27,1; 39,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 21,22</t>
+          <t>11,59; 21,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,27; 27,17</t>
+          <t>16,45; 27,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,29; 43,69</t>
+          <t>32,97; 44,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,87; 51,35</t>
+          <t>37,02; 51,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,59; 39,93</t>
+          <t>26,84; 40,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,41; 33,59</t>
+          <t>22,01; 33,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,16; 55,87</t>
+          <t>46,61; 56,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,61; 44,24</t>
+          <t>34,4; 44,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,65; 28,78</t>
+          <t>20,72; 28,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 28,86</t>
+          <t>20,5; 28,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,98; 49,2</t>
+          <t>41,6; 49,25</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,91; 16,73</t>
+          <t>8,68; 16,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,66; 19,18</t>
+          <t>10,81; 19,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 16,74</t>
+          <t>9,3; 17,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,41; 20,71</t>
+          <t>13,15; 21,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,36; 33,37</t>
+          <t>22,68; 33,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 22,13</t>
+          <t>13,19; 22,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,46; 23,52</t>
+          <t>13,83; 23,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,64</t>
+          <t>12,88; 19,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,92; 23,8</t>
+          <t>16,88; 23,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,59</t>
+          <t>13,15; 19,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,51; 19,06</t>
+          <t>12,65; 19,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,17</t>
+          <t>13,97; 18,9</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,93</t>
+          <t>8,09; 12,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,82</t>
+          <t>17,32; 23,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 19,61</t>
+          <t>13,82; 19,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,98; 24,06</t>
+          <t>17,2; 24,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,43</t>
+          <t>20,01; 26,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,58; 29,71</t>
+          <t>22,61; 29,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,01; 27,77</t>
+          <t>21,01; 27,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,79; 27,84</t>
+          <t>14,09; 27,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,75; 18,85</t>
+          <t>14,64; 18,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,74</t>
+          <t>20,81; 25,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,33; 22,75</t>
+          <t>18,26; 22,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,42; 24,91</t>
+          <t>16,54; 24,65</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,08; 32,88</t>
+          <t>26,28; 32,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,67; 20,32</t>
+          <t>14,72; 20,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,28</t>
+          <t>5,68; 9,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,29</t>
+          <t>7,92; 12,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,0; 40,82</t>
+          <t>34,06; 41,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,71; 26,8</t>
+          <t>21,02; 27,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,28; 16,02</t>
+          <t>11,09; 16,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,83; 21,17</t>
+          <t>15,88; 21,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,1; 36,04</t>
+          <t>31,04; 35,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,58; 22,88</t>
+          <t>18,76; 22,94</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,07; 12,3</t>
+          <t>9,11; 12,17</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,5; 16,05</t>
+          <t>12,43; 16,2</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,06; 20,81</t>
+          <t>18,15; 21,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,99; 18,74</t>
+          <t>16,06; 18,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,51; 16,98</t>
+          <t>14,49; 16,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,43; 18,16</t>
+          <t>15,35; 18,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,29</t>
+          <t>28,04; 31,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,02; 27,03</t>
+          <t>23,93; 27,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,79; 23,81</t>
+          <t>20,86; 23,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,19; 23,84</t>
+          <t>20,25; 23,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,63; 25,77</t>
+          <t>23,6; 25,71</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,47; 22,53</t>
+          <t>20,52; 22,52</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,04; 20,07</t>
+          <t>17,9; 19,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,85</t>
+          <t>18,58; 20,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 25,08</t>
+          <t>15,51; 25,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,94; 32,94</t>
+          <t>22,46; 32,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 25,93</t>
+          <t>16,56; 26,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,51; 44,56</t>
+          <t>32,78; 44,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 24,06</t>
+          <t>17,01; 24,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,06; 36,83</t>
+          <t>28,99; 37,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,12; 27,36</t>
+          <t>19,64; 27,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 12,91</t>
+          <t>6,92; 12,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,97; 15,99</t>
+          <t>10,11; 16,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,58; 37,63</t>
+          <t>29,45; 37,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 21,88</t>
+          <t>15,07; 21,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 22,96</t>
+          <t>15,52; 22,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,4; 31,51</t>
+          <t>25,75; 31,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,84; 16,32</t>
+          <t>11,92; 16,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,36</t>
+          <t>13,85; 18,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 15,12</t>
+          <t>8,04; 15,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,94</t>
+          <t>11,66; 20,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 25,3</t>
+          <t>16,69; 25,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,64; 25,23</t>
+          <t>16,88; 25,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 25,03</t>
+          <t>15,79; 25,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 29,75</t>
+          <t>19,97; 29,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 19,04</t>
+          <t>13,44; 19,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 20,73</t>
+          <t>14,8; 20,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,17; 25,99</t>
+          <t>19,7; 26,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,56</t>
+          <t>10,39; 17,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 25,73</t>
+          <t>19,02; 25,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 24,98</t>
+          <t>16,63; 25,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,69; 32,17</t>
+          <t>22,24; 31,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,3; 40,06</t>
+          <t>32,41; 40,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,12; 32,18</t>
+          <t>22,97; 33,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 23,69</t>
+          <t>17,51; 23,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,94; 31,88</t>
+          <t>26,97; 32,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,94; 27,47</t>
+          <t>21,08; 27,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,1; 39,5</t>
+          <t>26,97; 39,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 21,74</t>
+          <t>11,41; 21,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 27,8</t>
+          <t>16,7; 28,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,02; 51,1</t>
+          <t>37,59; 52,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,84; 40,16</t>
+          <t>26,35; 39,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,01; 33,38</t>
+          <t>21,88; 33,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,4; 44,17</t>
+          <t>34,92; 43,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,72; 28,94</t>
+          <t>20,53; 29,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,5; 28,78</t>
+          <t>20,82; 28,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,68</t>
+          <t>9,13; 16,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,81; 19,48</t>
+          <t>10,52; 19,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 17,3</t>
+          <t>8,72; 16,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 33,86</t>
+          <t>22,48; 33,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,19; 22,22</t>
+          <t>13,81; 22,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,83; 23,71</t>
+          <t>13,96; 23,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,88; 23,82</t>
+          <t>16,89; 23,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,15; 19,64</t>
+          <t>13,01; 19,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,25</t>
+          <t>12,45; 19,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,73</t>
+          <t>7,91; 12,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,32; 23,65</t>
+          <t>17,0; 24,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,6</t>
+          <t>13,74; 19,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,01; 26,52</t>
+          <t>19,56; 26,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,61; 29,49</t>
+          <t>22,42; 29,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,01; 27,78</t>
+          <t>20,88; 27,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,64; 18,97</t>
+          <t>14,72; 18,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,81; 25,78</t>
+          <t>20,88; 25,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,26; 22,71</t>
+          <t>18,22; 22,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,28; 32,84</t>
+          <t>25,83; 32,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,72; 20,42</t>
+          <t>14,86; 20,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,22</t>
+          <t>5,59; 9,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,06; 41,09</t>
+          <t>34,05; 41,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,02; 27,33</t>
+          <t>21,08; 27,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,09; 16,34</t>
+          <t>11,38; 16,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,04; 35,78</t>
+          <t>30,93; 35,98</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,76; 22,94</t>
+          <t>18,84; 22,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,17</t>
+          <t>9,07; 12,23</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,15; 21,02</t>
+          <t>18,17; 21,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,77</t>
+          <t>16,09; 18,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,49; 16,92</t>
+          <t>14,4; 16,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,33</t>
+          <t>28,06; 31,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,93; 27,03</t>
+          <t>23,96; 26,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,86; 23,76</t>
+          <t>20,94; 23,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,6; 25,71</t>
+          <t>23,67; 25,72</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,52; 22,52</t>
+          <t>20,52; 22,45</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,93</t>
+          <t>18,09; 20,06</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,23</t>
+          <t>15,28; 25,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,46; 32,89</t>
+          <t>22,66; 33,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,15; 29,88</t>
+          <t>19,85; 29,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,56; 26,3</t>
+          <t>16,3; 26,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,78; 44,97</t>
+          <t>32,67; 43,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,65; 39,15</t>
+          <t>30,75; 39,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 24,28</t>
+          <t>16,92; 24,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,99; 37,51</t>
+          <t>29,35; 37,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,65; 33,73</t>
+          <t>26,63; 33,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,64; 27,56</t>
+          <t>19,78; 27,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 12,93</t>
+          <t>7,28; 12,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 16,32</t>
+          <t>10,13; 16,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 14,67</t>
+          <t>8,04; 14,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,45; 37,41</t>
+          <t>29,64; 37,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 21,92</t>
+          <t>14,84; 21,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 22,82</t>
+          <t>15,66; 22,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,93; 21,49</t>
+          <t>15,66; 21,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,75; 31,65</t>
+          <t>25,84; 31,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,54</t>
+          <t>11,89; 16,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,67</t>
+          <t>13,82; 18,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 17,17</t>
+          <t>12,88; 17,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 15,23</t>
+          <t>7,99; 15,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,66; 20,14</t>
+          <t>11,48; 19,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 25,46</t>
+          <t>16,6; 25,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,51</t>
+          <t>12,94; 20,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 25,54</t>
+          <t>16,72; 25,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 25,07</t>
+          <t>15,93; 24,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,97; 29,83</t>
+          <t>19,89; 29,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,63</t>
+          <t>14,22; 20,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,29</t>
+          <t>13,62; 19,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,8; 20,72</t>
+          <t>14,82; 21,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 26,14</t>
+          <t>19,3; 26,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 19,37</t>
+          <t>14,44; 19,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 17,62</t>
+          <t>10,29; 17,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 25,95</t>
+          <t>19,31; 25,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 25,32</t>
+          <t>16,5; 25,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 24,42</t>
+          <t>13,99; 24,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 31,54</t>
+          <t>22,55; 31,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,41; 40,2</t>
+          <t>32,22; 39,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,97; 33,0</t>
+          <t>22,67; 32,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 24,73</t>
+          <t>17,13; 25,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 23,49</t>
+          <t>17,71; 23,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,97; 32,03</t>
+          <t>26,79; 31,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 27,37</t>
+          <t>20,96; 27,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 23,45</t>
+          <t>16,71; 23,3</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,97; 39,99</t>
+          <t>27,49; 41,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 21,48</t>
+          <t>11,2; 21,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 28,14</t>
+          <t>16,27; 27,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,97; 44,83</t>
+          <t>32,29; 43,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,59; 52,11</t>
+          <t>37,87; 51,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,35; 39,73</t>
+          <t>26,59; 39,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,88; 33,82</t>
+          <t>21,41; 33,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,61; 56,03</t>
+          <t>46,16; 55,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,92; 43,65</t>
+          <t>34,61; 44,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,53; 29,11</t>
+          <t>20,65; 28,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,82; 28,74</t>
+          <t>20,69; 28,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>41,6; 49,25</t>
+          <t>40,98; 49,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 16,92</t>
+          <t>8,91; 16,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,52; 19,48</t>
+          <t>10,66; 19,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,74</t>
+          <t>9,23; 16,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,15; 21,04</t>
+          <t>13,41; 20,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 33,7</t>
+          <t>22,36; 33,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,81; 22,48</t>
+          <t>13,23; 22,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,96; 23,7</t>
+          <t>13,46; 23,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,88; 19,57</t>
+          <t>12,97; 19,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 23,38</t>
+          <t>16,92; 23,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,36</t>
+          <t>13,38; 19,59</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,45; 19,14</t>
+          <t>12,51; 19,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,97; 18,9</t>
+          <t>13,98; 19,17</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,86</t>
+          <t>8,07; 12,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 24,1</t>
+          <t>16,82; 23,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,74; 19,85</t>
+          <t>14,09; 19,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,2; 24,12</t>
+          <t>16,98; 24,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,56; 26,34</t>
+          <t>19,9; 26,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,42; 29,58</t>
+          <t>22,58; 29,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,88; 27,4</t>
+          <t>21,01; 27,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 27,83</t>
+          <t>14,79; 27,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,72; 18,9</t>
+          <t>14,75; 18,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,88; 25,74</t>
+          <t>20,87; 25,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,88</t>
+          <t>18,33; 22,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,54; 24,65</t>
+          <t>16,42; 24,91</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,83; 32,66</t>
+          <t>26,08; 32,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,71</t>
+          <t>14,67; 20,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,4</t>
+          <t>5,66; 9,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 12,36</t>
+          <t>7,69; 12,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,05; 41,11</t>
+          <t>34,0; 40,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,08; 27,03</t>
+          <t>20,71; 26,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 16,56</t>
+          <t>11,28; 16,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,88; 21,16</t>
+          <t>15,83; 21,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,93; 35,98</t>
+          <t>31,1; 36,04</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,84; 22,99</t>
+          <t>18,58; 22,88</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,07; 12,23</t>
+          <t>9,07; 12,3</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,43; 16,2</t>
+          <t>12,5; 16,05</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,02</t>
+          <t>18,06; 20,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,09; 18,75</t>
+          <t>15,99; 18,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,4; 16,97</t>
+          <t>14,51; 16,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,35; 18,22</t>
+          <t>15,43; 18,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,06; 31,26</t>
+          <t>28,22; 31,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,96; 26,89</t>
+          <t>24,02; 27,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,94; 23,83</t>
+          <t>20,79; 23,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,25; 23,96</t>
+          <t>20,19; 23,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,67; 25,72</t>
+          <t>23,63; 25,77</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,52; 22,45</t>
+          <t>20,47; 22,53</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,09; 20,06</t>
+          <t>18,04; 20,07</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,8</t>
+          <t>18,58; 20,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>28,52%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,17; 32,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 29,64</t>
+          <t>18,56; 28,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,01; 37,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,75; 39,68</t>
+          <t>29,89; 39,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,84; 33,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,63; 33,46</t>
+          <t>24,99; 32,06</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,6%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 14,36</t>
+          <t>7,89; 14,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 21,76</t>
+          <t>15,6; 21,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 17,27</t>
+          <t>12,59; 17,01</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,53%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 20,93</t>
+          <t>12,65; 20,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,79</t>
+          <t>14,06; 20,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 19,26</t>
+          <t>14,25; 18,98</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>17,64%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 25,56</t>
+          <t>15,02; 23,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 24,31</t>
+          <t>13,79; 24,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,22; 39,77</t>
+          <t>34,18; 44,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 25,02</t>
+          <t>10,18; 22,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,79; 31,7</t>
+          <t>25,84; 32,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 23,3</t>
+          <t>13,34; 21,48</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>51,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>45,56%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,29; 43,69</t>
+          <t>32,66; 43,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,16; 55,87</t>
+          <t>46,67; 56,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,98; 49,2</t>
+          <t>41,3; 49,51</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>16,2%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,41; 20,71</t>
+          <t>13,23; 20,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,64</t>
+          <t>12,92; 19,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,17</t>
+          <t>13,85; 19,01</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>20,02%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,98; 24,06</t>
+          <t>16,4; 23,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,79; 27,84</t>
+          <t>9,62; 27,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,42; 24,91</t>
+          <t>12,6; 24,12</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>12,44%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,29</t>
+          <t>3,31; 11,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,83; 21,17</t>
+          <t>16,0; 21,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,5; 16,05</t>
+          <t>7,57; 15,23</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>18,71%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,43; 18,16</t>
+          <t>12,53; 17,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,19; 23,84</t>
+          <t>17,64; 23,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,85</t>
+          <t>16,3; 20,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 25,24</t>
+          <t>15,39; 25,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,17; 32,91</t>
+          <t>22,27; 32,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,66; 33,17</t>
+          <t>22,36; 33,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,56; 28,2</t>
+          <t>18,3; 28,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 26,78</t>
+          <t>16,14; 26,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,01; 37,74</t>
+          <t>27,0; 38,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,67; 43,64</t>
+          <t>32,43; 44,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,89; 39,08</t>
+          <t>30,06; 39,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 24,13</t>
+          <t>17,11; 24,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,84; 33,67</t>
+          <t>26,23; 34,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,35; 37,01</t>
+          <t>28,97; 37,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,99; 32,06</t>
+          <t>25,11; 31,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,54</t>
+          <t>19,9; 27,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 12,86</t>
+          <t>7,25; 13,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,04</t>
+          <t>10,07; 16,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 14,34</t>
+          <t>8,1; 14,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,64; 37,67</t>
+          <t>29,26; 37,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 21,71</t>
+          <t>14,79; 21,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,65</t>
+          <t>15,87; 23,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,6; 21,67</t>
+          <t>15,78; 21,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 31,45</t>
+          <t>25,85; 31,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 16,49</t>
+          <t>11,7; 16,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,37</t>
+          <t>13,53; 18,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 17,01</t>
+          <t>12,51; 16,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 15,29</t>
+          <t>8,22; 15,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 19,7</t>
+          <t>11,42; 19,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 25,62</t>
+          <t>17,2; 25,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 20,5</t>
+          <t>13,0; 20,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 25,22</t>
+          <t>16,64; 25,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,93; 24,51</t>
+          <t>15,84; 24,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,89; 29,46</t>
+          <t>19,99; 29,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 20,59</t>
+          <t>14,02; 20,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,39</t>
+          <t>13,4; 19,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 21,11</t>
+          <t>14,8; 21,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,3; 26,0</t>
+          <t>19,4; 25,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,98</t>
+          <t>14,19; 19,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 17,34</t>
+          <t>10,46; 17,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 23,32</t>
+          <t>14,72; 22,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 25,11</t>
+          <t>16,52; 25,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 24,37</t>
+          <t>13,92; 24,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,55; 31,97</t>
+          <t>22,54; 31,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,18; 44,0</t>
+          <t>34,04; 44,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,67; 32,24</t>
+          <t>22,54; 32,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 22,44</t>
+          <t>10,43; 22,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,71; 23,28</t>
+          <t>17,79; 23,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,84; 32,43</t>
+          <t>25,92; 33,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,35</t>
+          <t>20,95; 27,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 21,48</t>
+          <t>12,82; 21,53</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,49; 41,31</t>
+          <t>27,27; 40,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 21,22</t>
+          <t>11,38; 21,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,27; 27,17</t>
+          <t>16,68; 27,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,66; 43,9</t>
+          <t>32,91; 44,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,87; 51,35</t>
+          <t>37,57; 51,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,59; 39,93</t>
+          <t>26,59; 39,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,41; 33,59</t>
+          <t>21,77; 33,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,67; 56,2</t>
+          <t>46,58; 56,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,61; 44,24</t>
+          <t>34,45; 44,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,65; 28,78</t>
+          <t>20,27; 28,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 28,86</t>
+          <t>20,66; 28,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>41,3; 49,51</t>
+          <t>41,86; 49,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,91; 16,73</t>
+          <t>9,03; 16,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,66; 19,18</t>
+          <t>10,6; 19,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 16,74</t>
+          <t>9,17; 16,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 20,39</t>
+          <t>13,1; 20,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,36; 33,37</t>
+          <t>22,65; 33,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 22,13</t>
+          <t>13,03; 22,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,46; 23,52</t>
+          <t>13,95; 24,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,55</t>
+          <t>12,74; 19,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,92; 23,8</t>
+          <t>16,73; 23,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,59</t>
+          <t>13,14; 19,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,51; 19,06</t>
+          <t>12,65; 19,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,85; 19,01</t>
+          <t>13,89; 18,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,93</t>
+          <t>7,99; 12,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,82</t>
+          <t>16,98; 24,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 19,61</t>
+          <t>13,73; 19,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,4; 23,58</t>
+          <t>16,09; 23,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,43</t>
+          <t>19,52; 26,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,58; 29,71</t>
+          <t>22,51; 29,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,01; 27,77</t>
+          <t>20,8; 27,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 27,57</t>
+          <t>10,75; 27,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,75; 18,85</t>
+          <t>14,63; 18,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,74</t>
+          <t>20,95; 25,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,33; 22,75</t>
+          <t>18,25; 22,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,6; 24,12</t>
+          <t>12,42; 23,99</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,08; 32,88</t>
+          <t>26,31; 33,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,67; 20,32</t>
+          <t>14,94; 20,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,28</t>
+          <t>5,58; 9,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,31; 11,37</t>
+          <t>3,27; 11,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,0; 40,82</t>
+          <t>34,21; 41,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,71; 26,8</t>
+          <t>20,86; 27,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,28; 16,02</t>
+          <t>11,16; 16,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,0; 21,11</t>
+          <t>15,91; 20,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,1; 36,04</t>
+          <t>31,06; 36,13</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,58; 22,88</t>
+          <t>18,82; 22,95</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,07; 12,3</t>
+          <t>9,06; 12,23</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 15,23</t>
+          <t>7,47; 15,15</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,06; 20,81</t>
+          <t>18,28; 21,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,99; 18,74</t>
+          <t>16,01; 18,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,51; 16,98</t>
+          <t>14,49; 17,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,53; 17,51</t>
+          <t>12,14; 17,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,29</t>
+          <t>27,97; 31,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,02; 27,03</t>
+          <t>23,99; 26,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,79; 23,81</t>
+          <t>20,88; 23,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,37</t>
+          <t>17,3; 23,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,63; 25,77</t>
+          <t>23,52; 25,71</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,47; 22,53</t>
+          <t>20,45; 22,52</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,04; 20,07</t>
+          <t>18,06; 20,08</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,3; 20,24</t>
+          <t>16,43; 20,26</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54820</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>79792</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>80315</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>71432</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54205</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>92690</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>111029</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>109025</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>172482</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>191344</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>171431</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42004; 70865</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>65630; 95869</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>65465; 98249</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>56985; 88670</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42103; 68364</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>77570; 111078</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>93636; 128401</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>87074; 113239</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>91340; 128852</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>152629; 198489</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>168471; 217623</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>150932; 191220</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>115594</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48854</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>63747</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55735</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>169063</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>93900</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99030</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>95115</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>284657</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>142754</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>162777</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>150850</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>98100; 135398</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36656; 67729</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50518; 80757</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42001; 73158</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>147480; 190178</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>76882; 113263</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>82660; 121530</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>81264; 111157</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>257702; 314190</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>119933; 166531</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>138284; 186772</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>129276; 171402</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35962</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49268</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66565</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50309</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>69966</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68840</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>81607</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59122</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>105928</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>118109</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>148172</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109431</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26214; 48374</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37011; 62902</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>54808; 82341</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>40973; 66035</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>55829; 85165</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>54019; 84805</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66853; 96967</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48648; 70850</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>87674; 125676</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>98406; 140502</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>126645; 168058</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93935; 127224</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>49004</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69664</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>75832</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>57467</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>100137</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>151753</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>105631</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81406</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>149141</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>221416</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>181463</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>138873</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>37506; 63413</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>54906; 85774</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>61107; 93365</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>43503; 75608</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>83743; 117717</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>132390; 171899</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>87102; 124004</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49516; 107675</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>129925; 172968</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>197493; 251463</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>158431; 205488</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100964; 169493</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>68617</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33899</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>45643</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>68775</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>92204</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>72602</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>60054</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>107513</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>160822</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>106502</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>105697</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>176288</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>55443; 81950</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24204; 46032</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>35235; 58827</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>58824; 79536</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>78016; 107020</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>58390; 86416</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>47578; 72919</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>96990; 117400</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>141583; 181376</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>87599; 125104</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>88813; 124328</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>161975; 191768</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>33647</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>40222</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>33402</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>44746</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>77108</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>48746</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>49615</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40577</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>110755</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>88968</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>83017</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>85323</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>24456; 44510</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>29055; 52955</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>24117; 44232</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>35323; 55660</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>62992; 92739</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>36376; 61452</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38112; 65617</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>32752; 49677</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>91842; 129872</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>72675; 109504</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>67818; 102105</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>73156; 98795</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>63070</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>134781</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>108870</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>123086</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>146408</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>180009</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>167450</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>171890</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>209478</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>314790</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>276319</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>294976</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>49158; 78801</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>112512; 160017</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>90174; 129151</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>100465; 146270</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>124590; 169062</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>155959; 205593</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>143556; 191126</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>91310; 231990</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>183347; 237128</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>284059; 349332</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>245770; 307440</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>182955; 353437</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>218504</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>136104</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>56860</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>73440</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>293475</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>195946</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>112400</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>131369</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>511979</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>332050</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>169260</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>204809</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>195723; 245704</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>116084; 160042</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>43333; 70978</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>30366; 107510</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>268031; 324728</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>171658; 222365</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>92191; 134898</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>114215; 150679</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>474393; 551748</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>301038; 367237</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>145179; 195999</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>122940; 249423</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>639218</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>592584</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>531234</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>544990</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1002566</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>904486</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>786816</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>786991</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1641785</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1497070</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1318049</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1331981</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>598980; 689419</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>548288; 639920</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>491393; 576178</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>419986; 604028</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>945138; 1053966</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>852035; 957667</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>738735; 843103</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>632844; 859981</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1565663; 1710947</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1426614; 1570610</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1251189; 1390966</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1169148; 1441937</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>